--- a/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
@@ -10,7 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4680,1395 +4679,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="14" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="14" customWidth="1" min="22" max="22"/>
-    <col width="14" customWidth="1" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población según si en el barrio donde vive hay espacios verdes suficientes [En 2023 se pregunta en negativo] en 2023 (tasa de respuesta: 99,84%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="T2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Primarios</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>61358</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>48997</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>75924</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0.1062570609385646</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0.08485171178306355</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0.1314837445925905</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>63770</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>52205</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>77552</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>0.07797759674674468</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0.06383610949216119</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>0.09483026785451985</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>167</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>125127</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>107183</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>147086</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>0.08968154050929035</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>0.07682042390103157</v>
-      </c>
-      <c r="W4" s="6" t="n">
-        <v>0.1054202717069739</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>66167</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>52556</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>82590</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0.1145861435970261</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0.09101435957575806</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0.1430272945394395</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>208</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>131576</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>115062</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>148496</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>0.1608908644855331</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>0.140698189134906</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>0.1815809178587252</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>288</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>197743</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>176171</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>219650</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <v>0.1417268575035259</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>0.1262659663728491</v>
-      </c>
-      <c r="W5" s="6" t="n">
-        <v>0.1574281781183831</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>542</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>449919</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>429262</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>467738</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0.7791567954644093</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0.7433821790470818</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0.8100141805746853</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>1113</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>622450</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>601778</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>642226</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.7611315387677221</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0.7358541806917728</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0.7853147245551558</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>1655</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>1072369</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>1044730</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>1098818</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>0.7685916019871838</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>0.7487818936906984</v>
-      </c>
-      <c r="W6" s="6" t="n">
-        <v>0.7875480663843184</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>690</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>577444</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>577444</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>577444</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>1420</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>817795</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>817795</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>817795</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>2110</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>1395239</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>1395239</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>1395239</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundarios</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>129</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>153047</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>129506</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>182576</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0.06861348849851504</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0.05805989920745527</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0.08185197934346095</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>237</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>190180</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>166470</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>216304</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0.08758414695486892</v>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v>0.07666504048726915</v>
-      </c>
-      <c r="P8" s="6" t="n">
-        <v>0.09961543512169127</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>366</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>343227</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>308696</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>380517</v>
-      </c>
-      <c r="U8" s="6" t="n">
-        <v>0.07797130925983843</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>0.07012699765357222</v>
-      </c>
-      <c r="W8" s="6" t="n">
-        <v>0.08644274273238928</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>241</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>276464</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>240389</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>312170</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.1239436014460329</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0.1077705141156292</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0.1399512242771876</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>370</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>291520</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>264471</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>323203</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>0.1342550520580238</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>0.1217977232633057</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>0.14884598631017</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>611</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>567985</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>518060</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>610762</v>
-      </c>
-      <c r="U9" s="6" t="n">
-        <v>0.1290300198662608</v>
-      </c>
-      <c r="V9" s="6" t="n">
-        <v>0.1176885058737361</v>
-      </c>
-      <c r="W9" s="6" t="n">
-        <v>0.1387476702015656</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>1622</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>1801055</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>1759863</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>1841532</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0.8074429100554521</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>0.788976063123361</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0.8255896760327432</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>2314</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>1689692</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>1652155</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>1729232</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0.7781608009871074</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>0.7608738806831329</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0.7963702247233206</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>3936</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>3490748</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>3434011</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>3547592</v>
-      </c>
-      <c r="U10" s="6" t="n">
-        <v>0.7929986708739007</v>
-      </c>
-      <c r="V10" s="6" t="n">
-        <v>0.7801096620205752</v>
-      </c>
-      <c r="W10" s="6" t="n">
-        <v>0.8059121679833881</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>1992</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>2230566</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>2230566</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>2230566</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>2921</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>2171392</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>2171392</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>2171392</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>4913</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>4401959</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>4401959</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>4401959</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Universitarios</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>71</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>80130</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>64757</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>102057</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0.1126742263305571</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0.09105776868468186</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0.1435076224676383</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>118</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>88653</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>73817</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>106508</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.1211076989461463</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>0.1008412847400111</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>0.1454999675238524</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>189</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>168783</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>145018</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>195315</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <v>0.1169518879996785</v>
-      </c>
-      <c r="V12" s="6" t="n">
-        <v>0.1004847725061797</v>
-      </c>
-      <c r="W12" s="6" t="n">
-        <v>0.1353366698867302</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>115</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>123020</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>100552</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>145050</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0.1729838595034644</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0.1413913120047132</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0.2039617862213521</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>148</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>112577</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>95904</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>130236</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.1537904564251396</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>0.131014090549956</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>0.1779146556078512</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>263</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>235597</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>208369</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>264985</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <v>0.1632485003708124</v>
-      </c>
-      <c r="V13" s="6" t="n">
-        <v>0.1443822376650812</v>
-      </c>
-      <c r="W13" s="6" t="n">
-        <v>0.1836120534156867</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>494</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>508014</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>480016</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>533811</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>0.7143419141659785</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>0.6749736184005958</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0.7506169575480764</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>734</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>530785</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>509671</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>552019</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>0.7251018446287141</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>0.6962578438227627</v>
-      </c>
-      <c r="P14" s="6" t="n">
-        <v>0.7541091413977709</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>1228</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>1038800</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>1002498</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>1071033</v>
-      </c>
-      <c r="U14" s="6" t="n">
-        <v>0.7197996116295091</v>
-      </c>
-      <c r="V14" s="6" t="n">
-        <v>0.6946457229957288</v>
-      </c>
-      <c r="W14" s="6" t="n">
-        <v>0.7421344862944771</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>680</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>711163</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>711163</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>711163</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>732015</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>732015</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>732015</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>1680</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>1443179</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>1443179</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>1443179</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>268</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>294534</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>259215</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>333080</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.08369413992082696</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0.07365797904450236</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0.09464733584257413</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>454</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>342602</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>312514</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>377681</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.09206752514837577</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>0.08398191581349813</v>
-      </c>
-      <c r="P16" s="6" t="n">
-        <v>0.1014944378419901</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>722</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>637136</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>594634</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>689681</v>
-      </c>
-      <c r="U16" s="6" t="n">
-        <v>0.08799765429692064</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>0.0821274509534808</v>
-      </c>
-      <c r="W16" s="6" t="n">
-        <v>0.09525492684866683</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>436</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>465651</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>422791</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>510756</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.1323183619619476</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0.1201392789984908</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0.1451353004097564</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>726</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>535673</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>499065</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>572933</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.1439516089207198</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>0.1341139070103022</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.1539645658573392</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>1162</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>1001324</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>940363</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>1061209</v>
-      </c>
-      <c r="U17" s="6" t="n">
-        <v>0.1382972873508109</v>
-      </c>
-      <c r="V17" s="6" t="n">
-        <v>0.1298777144704681</v>
-      </c>
-      <c r="W17" s="6" t="n">
-        <v>0.1465682337466392</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>2658</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>2758988</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>2704352</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>2817167</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.7839874981172255</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0.7684622964082803</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>0.8005195181245979</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>4161</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>2842928</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>2797497</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>2887739</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.7639808659309043</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>0.7517722885314473</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>0.7760230947812248</v>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>6819</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>5601916</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>5526318</v>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>5669529</v>
-      </c>
-      <c r="U18" s="6" t="n">
-        <v>0.7737050583522684</v>
-      </c>
-      <c r="V18" s="6" t="n">
-        <v>0.763263964146688</v>
-      </c>
-      <c r="W18" s="6" t="n">
-        <v>0.7830434597081656</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>3362</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>3519173</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>3519173</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>3519173</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>5341</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>3721203</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>3721203</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>3721203</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>8703</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>7240376</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>7240376</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>7240376</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A16:A19"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>319230</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>290607</v>
+        <v>290619</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>348884</v>
+        <v>350338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3104662381321123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2826290621759339</v>
+        <v>0.2826400519474724</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3393053476805583</v>
+        <v>0.3407194055166713</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>407</v>
@@ -764,19 +764,19 @@
         <v>418769</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>386878</v>
+        <v>382343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>455263</v>
+        <v>452631</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3191239171720597</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2948206865495382</v>
+        <v>0.2913647694359802</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3469339188041995</v>
+        <v>0.3449278367062654</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>724</v>
@@ -785,19 +785,19 @@
         <v>738000</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>694781</v>
+        <v>693223</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>787052</v>
+        <v>778157</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3153203853765639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2968544033419723</v>
+        <v>0.2961888984469876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3362786005224597</v>
+        <v>0.3324778915879154</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>506538</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>472833</v>
+        <v>474983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>541078</v>
+        <v>536894</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4926314118233358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4598516287267744</v>
+        <v>0.4619427394819508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5262235650083765</v>
+        <v>0.5221541212454901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>627</v>
@@ -835,19 +835,19 @@
         <v>632212</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>597603</v>
+        <v>597718</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>667815</v>
+        <v>670311</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4817783151772815</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.455404422657358</v>
+        <v>0.455492240628713</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5089095174865675</v>
+        <v>0.5108113396741389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1138</v>
@@ -856,19 +856,19 @@
         <v>1138750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1087335</v>
+        <v>1094889</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1184762</v>
+        <v>1187126</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4865463480394823</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4645785473716232</v>
+        <v>0.4678061611888801</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5062056944791821</v>
+        <v>0.5072158021997593</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>202461</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>176980</v>
+        <v>179578</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>229731</v>
+        <v>228294</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1969023500445519</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1721214973129642</v>
+        <v>0.174647872783155</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2234237768288019</v>
+        <v>0.2220264199930077</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>254</v>
@@ -906,19 +906,19 @@
         <v>261265</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>233482</v>
+        <v>233450</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>292660</v>
+        <v>291352</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1990977676506588</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.177925058386899</v>
+        <v>0.1779008044445502</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2230223570822698</v>
+        <v>0.2220254600408162</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>461</v>
@@ -927,19 +927,19 @@
         <v>463726</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>424196</v>
+        <v>424214</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>501828</v>
+        <v>503520</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1981332665839538</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1812432764423576</v>
+        <v>0.1812509918786891</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2144129735521038</v>
+        <v>0.215135900790172</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>599220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>558749</v>
+        <v>558287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>637700</v>
+        <v>638839</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3544602594606316</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3305200437934278</v>
+        <v>0.3302465692907979</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3772224733714519</v>
+        <v>0.3778960774420169</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>491</v>
@@ -1052,19 +1052,19 @@
         <v>500421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463715</v>
+        <v>465174</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>538591</v>
+        <v>538836</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3162397769749947</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2930431242809726</v>
+        <v>0.2939654517983581</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3403609710464892</v>
+        <v>0.3405157895424971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1071</v>
@@ -1073,19 +1073,19 @@
         <v>1099642</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1043857</v>
+        <v>1048413</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1156409</v>
+        <v>1153626</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3359812272884711</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3189370131234805</v>
+        <v>0.3203289280360245</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3533257742635011</v>
+        <v>0.3524753752528224</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>801625</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>759152</v>
+        <v>761785</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>839210</v>
+        <v>844033</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4741899688781817</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4490656952205873</v>
+        <v>0.4506232816863049</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4964226750644955</v>
+        <v>0.4992755542721428</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>763</v>
@@ -1123,19 +1123,19 @@
         <v>781530</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>743230</v>
+        <v>743664</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>821924</v>
+        <v>823244</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4938853999623056</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4696819985313115</v>
+        <v>0.4699562472642198</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5194122986300497</v>
+        <v>0.5202469478623382</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1552</v>
@@ -1144,19 +1144,19 @@
         <v>1583155</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1529624</v>
+        <v>1528116</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1641192</v>
+        <v>1643308</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4837124155083326</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4673567863140594</v>
+        <v>0.4668959665930233</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5014449236350313</v>
+        <v>0.5020913841687835</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>289669</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>257660</v>
+        <v>260191</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>322003</v>
+        <v>323106</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1713497716611868</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1524149859318988</v>
+        <v>0.1539124853499341</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1904765105919553</v>
+        <v>0.1911284479187256</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>295</v>
@@ -1194,19 +1194,19 @@
         <v>300460</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>267761</v>
+        <v>269037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>331648</v>
+        <v>332251</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1898748230626997</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1692109013901481</v>
+        <v>0.1700172719346156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2095841573913323</v>
+        <v>0.2099652526919456</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>572</v>
@@ -1215,19 +1215,19 @@
         <v>590129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>550102</v>
+        <v>543436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>633482</v>
+        <v>635690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1803063572031963</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1680764499442723</v>
+        <v>0.1660397616782807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1935522067922142</v>
+        <v>0.1942266916768581</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>153834</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134782</v>
+        <v>131573</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>175654</v>
+        <v>175362</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2810776576428539</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2462661262690704</v>
+        <v>0.2404034343412085</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3209454288603013</v>
+        <v>0.3204113382011947</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>123</v>
@@ -1340,19 +1340,19 @@
         <v>130547</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>111616</v>
+        <v>112275</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>151977</v>
+        <v>151888</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2749578705488598</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2350865532677954</v>
+        <v>0.2364743723484169</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3200937762653887</v>
+        <v>0.3199069797587272</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>271</v>
@@ -1361,19 +1361,19 @@
         <v>284381</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>257183</v>
+        <v>255626</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>313175</v>
+        <v>312283</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2782348557692804</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2516249280380051</v>
+        <v>0.250101700212123</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3064060698549254</v>
+        <v>0.3055340025319099</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>292335</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>268036</v>
+        <v>268736</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>316204</v>
+        <v>316353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5341378588268616</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4897407149222961</v>
+        <v>0.4910198245229902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.577749765263625</v>
+        <v>0.5780221382759964</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>247</v>
@@ -1411,19 +1411,19 @@
         <v>259072</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>237818</v>
+        <v>236122</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>280284</v>
+        <v>280696</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5456578058618359</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5008931425561892</v>
+        <v>0.4973206277758989</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5903357838420441</v>
+        <v>0.5912023735928581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>530</v>
@@ -1432,19 +1432,19 @@
         <v>551406</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>516581</v>
+        <v>519067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>582245</v>
+        <v>586212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5394891768566394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5054166832857127</v>
+        <v>0.5078490720622472</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5696616090424879</v>
+        <v>0.5735423590567628</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>101133</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83137</v>
+        <v>83403</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>120453</v>
+        <v>122964</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1847844835302846</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1519037430867062</v>
+        <v>0.1523896887828868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2200844610761461</v>
+        <v>0.2246729518517926</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -1482,19 +1482,19 @@
         <v>85170</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67109</v>
+        <v>68457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>102406</v>
+        <v>100870</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1793843235893043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1413442430596909</v>
+        <v>0.1441838691928267</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2156887066977906</v>
+        <v>0.2124533471539341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -1503,19 +1503,19 @@
         <v>186302</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>161070</v>
+        <v>160383</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>213606</v>
+        <v>212196</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1822759673740802</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1575889197930721</v>
+        <v>0.1569167547782739</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2089892258107955</v>
+        <v>0.2076103077895322</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>1072285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1024728</v>
+        <v>1017390</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1131429</v>
+        <v>1125037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3283129318644069</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3137518984707825</v>
+        <v>0.3115049894439547</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3464216366550373</v>
+        <v>0.3444646478147092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1021</v>
@@ -1628,19 +1628,19 @@
         <v>1049737</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>999554</v>
+        <v>994342</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1100518</v>
+        <v>1102460</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.311545999341111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2966523829778447</v>
+        <v>0.2951053884016659</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.326617022536143</v>
+        <v>0.3271931899714423</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2066</v>
@@ -1649,19 +1649,19 @@
         <v>2122023</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2039848</v>
+        <v>2048969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2191896</v>
+        <v>2199658</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3197988279112066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3074147581713708</v>
+        <v>0.3087892921314209</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3303290440137069</v>
+        <v>0.3314989295410097</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>1600498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1544236</v>
+        <v>1544300</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1654339</v>
+        <v>1661477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4900414391987528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4728150861918188</v>
+        <v>0.4728347919474362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5065264961577943</v>
+        <v>0.5087119282668794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1637</v>
@@ -1699,19 +1699,19 @@
         <v>1672814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1615592</v>
+        <v>1617192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1730407</v>
+        <v>1730463</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4964654690639393</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4794828423323138</v>
+        <v>0.4799577992919675</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5135581852591874</v>
+        <v>0.5135749374791957</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3220</v>
@@ -1720,19 +1720,19 @@
         <v>3273311</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3194704</v>
+        <v>3192130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3350961</v>
+        <v>3357708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.493303506246179</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4814569405429053</v>
+        <v>0.4810690051530504</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5050057177044298</v>
+        <v>0.5060224932136259</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>593263</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>549561</v>
+        <v>544730</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>640023</v>
+        <v>640643</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1816456289368403</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1682649092799744</v>
+        <v>0.1667856432546069</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1959626191860158</v>
+        <v>0.1961524448299793</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>630</v>
@@ -1770,19 +1770,19 @@
         <v>646895</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>603937</v>
+        <v>599845</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>695336</v>
+        <v>691072</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1919885315949496</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.179239249734223</v>
+        <v>0.1780248129106706</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2063651973203191</v>
+        <v>0.2050995383083617</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1206</v>
@@ -1791,19 +1791,19 @@
         <v>1240158</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1175210</v>
+        <v>1176079</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1303892</v>
+        <v>1305234</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1868976658426144</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1771097734927705</v>
+        <v>0.1772406223459626</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1965026949398793</v>
+        <v>0.196704976546839</v>
       </c>
     </row>
     <row r="19">
@@ -2134,19 +2134,19 @@
         <v>294873</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262487</v>
+        <v>267911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>325644</v>
+        <v>326892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3052467605510002</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2717215602194616</v>
+        <v>0.277336358787073</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3371004816888937</v>
+        <v>0.3383921215258484</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>361</v>
@@ -2155,19 +2155,19 @@
         <v>388271</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>355712</v>
+        <v>355992</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>424910</v>
+        <v>424524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2920325835509708</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2675437203262188</v>
+        <v>0.2677541069896491</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3195896814297693</v>
+        <v>0.3192997749581762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>636</v>
@@ -2176,19 +2176,19 @@
         <v>683144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>636452</v>
+        <v>642869</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>727157</v>
+        <v>727330</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2975933491938947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.277253340984553</v>
+        <v>0.280048425127693</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3167666104452573</v>
+        <v>0.3168418283006159</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>436445</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>404449</v>
+        <v>405019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>467194</v>
+        <v>468744</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4517995284588303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4186783590539549</v>
+        <v>0.4192679974614452</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4836311296829569</v>
+        <v>0.4852350741306901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>572</v>
@@ -2226,19 +2226,19 @@
         <v>616691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>575729</v>
+        <v>584329</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>650277</v>
+        <v>651838</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4638351656844943</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4330259620184732</v>
+        <v>0.4394941531477676</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4890965600497938</v>
+        <v>0.4902704328993625</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>975</v>
@@ -2247,19 +2247,19 @@
         <v>1053136</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1003331</v>
+        <v>1004589</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1102838</v>
+        <v>1102863</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4587703509801794</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4370744084198663</v>
+        <v>0.4376224210152806</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4804219334112696</v>
+        <v>0.4804325458257989</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>234697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>205947</v>
+        <v>207158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>261941</v>
+        <v>263908</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2429537109901695</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2131922592962135</v>
+        <v>0.2144463614029156</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2711569333541182</v>
+        <v>0.273193222408849</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>306</v>
@@ -2297,19 +2297,19 @@
         <v>324586</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>291716</v>
+        <v>292261</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>357034</v>
+        <v>358417</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2441322507645349</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2194097857427946</v>
+        <v>0.2198201194292886</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2685380879328269</v>
+        <v>0.2695784096305679</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>529</v>
@@ -2318,19 +2318,19 @@
         <v>559282</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>518306</v>
+        <v>517756</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>601438</v>
+        <v>604200</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2436362998259259</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2257860099420358</v>
+        <v>0.2255466530424887</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.262000487249907</v>
+        <v>0.2632033655473867</v>
       </c>
     </row>
     <row r="7">
@@ -2422,19 +2422,19 @@
         <v>666027</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>623718</v>
+        <v>622576</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>709422</v>
+        <v>707929</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3402829079511129</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3186669357689744</v>
+        <v>0.3180835316822595</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3624544950949491</v>
+        <v>0.3616913475365078</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>590</v>
@@ -2443,19 +2443,19 @@
         <v>638271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>593313</v>
+        <v>596900</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>679487</v>
+        <v>679239</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.365448435138941</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3397075566512993</v>
+        <v>0.3417609520177613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3890471981874066</v>
+        <v>0.3889055177145904</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1209</v>
@@ -2464,19 +2464,19 @@
         <v>1304297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1245028</v>
+        <v>1243226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1363219</v>
+        <v>1361605</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3521497621303137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3361475066605004</v>
+        <v>0.3356612284230039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3680581793295673</v>
+        <v>0.3676224870282253</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>800208</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>757473</v>
+        <v>755766</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>845569</v>
+        <v>846745</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4088380286552625</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3870041595504637</v>
+        <v>0.3861321118363514</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4320139219495823</v>
+        <v>0.4326148297175499</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>650</v>
@@ -2514,19 +2514,19 @@
         <v>698219</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>656817</v>
+        <v>658224</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>739887</v>
+        <v>740218</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3997722401614628</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3760670476425755</v>
+        <v>0.3768729897608541</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.42362990647812</v>
+        <v>0.4238193727482819</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1412</v>
@@ -2535,19 +2535,19 @@
         <v>1498426</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1429731</v>
+        <v>1436083</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1559066</v>
+        <v>1554606</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4045630381385754</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.386016050649205</v>
+        <v>0.3877310865376405</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4209354551532875</v>
+        <v>0.4197312402666993</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>491039</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>452889</v>
+        <v>454503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>528056</v>
+        <v>534174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2508790633936247</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2313879549183291</v>
+        <v>0.2322122462288187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2697916766859088</v>
+        <v>0.2729174995929496</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>385</v>
@@ -2585,19 +2585,19 @@
         <v>410052</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>374039</v>
+        <v>373228</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>450569</v>
+        <v>443294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2347793246995961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2141601311022435</v>
+        <v>0.213695483137908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2579781077326452</v>
+        <v>0.2538122932852736</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>854</v>
@@ -2606,19 +2606,19 @@
         <v>901090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>846141</v>
+        <v>847414</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>950650</v>
+        <v>957066</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2432871997311109</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2284514243466022</v>
+        <v>0.2287950565451436</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2566679082436171</v>
+        <v>0.2584002522712756</v>
       </c>
     </row>
     <row r="11">
@@ -2710,19 +2710,19 @@
         <v>136689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115497</v>
+        <v>116698</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>155893</v>
+        <v>161158</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2846754326170908</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2405396457847034</v>
+        <v>0.2430409952629496</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3246701815029321</v>
+        <v>0.3356356321927821</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>121</v>
@@ -2731,19 +2731,19 @@
         <v>138719</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>118877</v>
+        <v>118379</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>159002</v>
+        <v>159366</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3031117393529995</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2597567773290512</v>
+        <v>0.2586677702688574</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.347433172552968</v>
+        <v>0.3482265056615105</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>247</v>
@@ -2752,19 +2752,19 @@
         <v>275408</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>247824</v>
+        <v>246164</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>307194</v>
+        <v>303739</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2936723464854589</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2642590603373144</v>
+        <v>0.2624896421506243</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3275665234317788</v>
+        <v>0.3238820605255048</v>
       </c>
     </row>
     <row r="13">
@@ -2781,19 +2781,19 @@
         <v>214486</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>194085</v>
+        <v>190650</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>237944</v>
+        <v>240113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4467001840787913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4042116564781718</v>
+        <v>0.3970582633895001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.495555283868857</v>
+        <v>0.5000725197866848</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>182</v>
@@ -2802,19 +2802,19 @@
         <v>198579</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177478</v>
+        <v>177001</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>222326</v>
+        <v>222237</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4339103847585251</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3878028251166864</v>
+        <v>0.3867612655912347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4857999283697039</v>
+        <v>0.4856057203464787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>378</v>
@@ -2823,19 +2823,19 @@
         <v>413065</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>378162</v>
+        <v>380249</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>443874</v>
+        <v>444116</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4404587646596824</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4032414012270265</v>
+        <v>0.4054663787969073</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4733111120694185</v>
+        <v>0.4735691381202143</v>
       </c>
     </row>
     <row r="14">
@@ -2852,19 +2852,19 @@
         <v>128982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108509</v>
+        <v>106822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151064</v>
+        <v>150943</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2686243833041179</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.225986278232908</v>
+        <v>0.2224740493545924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3146130065737378</v>
+        <v>0.3143610435439947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -2873,19 +2873,19 @@
         <v>120352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101345</v>
+        <v>100759</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141859</v>
+        <v>140343</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2629778758884754</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.221446829050928</v>
+        <v>0.2201659966526897</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3099734427685136</v>
+        <v>0.3066601374188926</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>223</v>
@@ -2894,19 +2894,19 @@
         <v>249333</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>220757</v>
+        <v>222562</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>278583</v>
+        <v>283401</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2658688888548587</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2353967936800757</v>
+        <v>0.2373218593069474</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2970583591226473</v>
+        <v>0.3021958846365109</v>
       </c>
     </row>
     <row r="15">
@@ -2998,19 +2998,19 @@
         <v>1097588</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1047141</v>
+        <v>1038649</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1154321</v>
+        <v>1150211</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3224933591364056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3076710156183824</v>
+        <v>0.3051757372055837</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3391626513998089</v>
+        <v>0.3379549502714798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1072</v>
@@ -3019,19 +3019,19 @@
         <v>1165261</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1102881</v>
+        <v>1099652</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1224041</v>
+        <v>1216271</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3297530203986452</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3121004599545378</v>
+        <v>0.3111866207079703</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3463870727499443</v>
+        <v>0.3441882270957109</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2092</v>
@@ -3040,19 +3040,19 @@
         <v>2262849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2185592</v>
+        <v>2185675</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2342257</v>
+        <v>2345341</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3261913649663966</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3150547529012858</v>
+        <v>0.3150666247406978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3376381362559255</v>
+        <v>0.3380826032099304</v>
       </c>
     </row>
     <row r="17">
@@ -3069,19 +3069,19 @@
         <v>1451139</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1388841</v>
+        <v>1392848</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1509676</v>
+        <v>1511946</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4263735594123083</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4080693170693069</v>
+        <v>0.4092464885738382</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4435731861556327</v>
+        <v>0.4442399669049492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1404</v>
@@ -3090,19 +3090,19 @@
         <v>1513488</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1454499</v>
+        <v>1450962</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1576793</v>
+        <v>1581120</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4282967183100037</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4116033946233041</v>
+        <v>0.4106025657304944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4462109623085846</v>
+        <v>0.447435543402706</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2765</v>
@@ -3111,19 +3111,19 @@
         <v>2964627</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2872414</v>
+        <v>2877794</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3050425</v>
+        <v>3048878</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4273531991721781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4140606073574345</v>
+        <v>0.4148361710697792</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4397210983881696</v>
+        <v>0.4394980684928331</v>
       </c>
     </row>
     <row r="18">
@@ -3140,19 +3140,19 @@
         <v>854717</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>801825</v>
+        <v>798132</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>907523</v>
+        <v>903681</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2511330814512861</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2355922044429694</v>
+        <v>0.2345072447573597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2666485185688472</v>
+        <v>0.2655196785764289</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>799</v>
@@ -3161,19 +3161,19 @@
         <v>854989</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>799489</v>
+        <v>804589</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>904400</v>
+        <v>908871</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2419502612913511</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2262445040336566</v>
+        <v>0.2276877267641008</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2559328705965139</v>
+        <v>0.2571982354054776</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1606</v>
@@ -3182,19 +3182,19 @@
         <v>1709706</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1637019</v>
+        <v>1639458</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1785323</v>
+        <v>1790333</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2464554358614253</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2359774883343365</v>
+        <v>0.236329068666332</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2573557136646104</v>
+        <v>0.2580779141586406</v>
       </c>
     </row>
     <row r="19">
@@ -3525,19 +3525,19 @@
         <v>304455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>279523</v>
+        <v>279692</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>332222</v>
+        <v>330663</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4045374277951428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3714094305409339</v>
+        <v>0.3716346616982061</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4414317281593281</v>
+        <v>0.4393605025287598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>372</v>
@@ -3546,19 +3546,19 @@
         <v>411780</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>377715</v>
+        <v>381194</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>442425</v>
+        <v>444817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4167207031601523</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3822473850216246</v>
+        <v>0.3857679126916935</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4477333326648111</v>
+        <v>0.4501542152096181</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>678</v>
@@ -3567,19 +3567,19 @@
         <v>716235</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>673912</v>
+        <v>676900</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>754337</v>
+        <v>757930</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4114533402151019</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3871406244484292</v>
+        <v>0.3888572105626731</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4333417012620241</v>
+        <v>0.4354059080522585</v>
       </c>
     </row>
     <row r="5">
@@ -3596,19 +3596,19 @@
         <v>280420</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255182</v>
+        <v>257676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>307461</v>
+        <v>306707</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3726017125549639</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3390678114395781</v>
+        <v>0.3423815778621045</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4085317932132974</v>
+        <v>0.4075298602322866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>339</v>
@@ -3617,19 +3617,19 @@
         <v>380491</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350127</v>
+        <v>348955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>412161</v>
+        <v>414811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3850563288950352</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3543276541281274</v>
+        <v>0.3531420134291088</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4171062433836975</v>
+        <v>0.4197880736299187</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>625</v>
@@ -3638,19 +3638,19 @@
         <v>660911</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>623044</v>
+        <v>620971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>706092</v>
+        <v>703261</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3796716533755995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3579186787951147</v>
+        <v>0.356727654545678</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4056267550221723</v>
+        <v>0.404000697174791</v>
       </c>
     </row>
     <row r="6">
@@ -3667,19 +3667,19 @@
         <v>167725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>143923</v>
+        <v>147425</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>191676</v>
+        <v>190505</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2228608596498934</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1912340582108438</v>
+        <v>0.1958873079338503</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2546851672340343</v>
+        <v>0.2531290325557394</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>175</v>
@@ -3688,19 +3688,19 @@
         <v>195873</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>171587</v>
+        <v>171161</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>226091</v>
+        <v>223946</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1982229679448125</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1736455060907085</v>
+        <v>0.1732147205010929</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2288032287800619</v>
+        <v>0.2266332556418842</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>343</v>
@@ -3709,19 +3709,19 @@
         <v>363598</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>332386</v>
+        <v>327831</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>398234</v>
+        <v>396222</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2088750064092985</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1909446331549865</v>
+        <v>0.1883281137799397</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2287722348827962</v>
+        <v>0.2276163520530408</v>
       </c>
     </row>
     <row r="7">
@@ -3813,19 +3813,19 @@
         <v>774941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>731035</v>
+        <v>733051</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>816887</v>
+        <v>821042</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3748005942321896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3535656886976479</v>
+        <v>0.3545406202793401</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.395087937684742</v>
+        <v>0.3970975696045458</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>757</v>
@@ -3834,19 +3834,19 @@
         <v>794400</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>749989</v>
+        <v>750042</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>839267</v>
+        <v>835679</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4010241649628998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3786044343517415</v>
+        <v>0.3786316528684088</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4236736753015427</v>
+        <v>0.4218622401158621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1487</v>
@@ -3855,19 +3855,19 @@
         <v>1569341</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1506250</v>
+        <v>1500598</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1631893</v>
+        <v>1634152</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3876316555313924</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3720481504490509</v>
+        <v>0.370652030456973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.403082137337188</v>
+        <v>0.4036402123229588</v>
       </c>
     </row>
     <row r="9">
@@ -3884,19 +3884,19 @@
         <v>825623</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>780870</v>
+        <v>784979</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>872895</v>
+        <v>873875</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3993130052847838</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3776681485187282</v>
+        <v>0.379655480805116</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4221760572334832</v>
+        <v>0.4226503446752215</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>728</v>
@@ -3905,19 +3905,19 @@
         <v>751086</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>706028</v>
+        <v>706393</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>793825</v>
+        <v>791365</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3791584844038886</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3564124208913215</v>
+        <v>0.356596912364161</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4007334442757978</v>
+        <v>0.3994919849114469</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1504</v>
@@ -3926,19 +3926,19 @@
         <v>1576708</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1514670</v>
+        <v>1513506</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1640125</v>
+        <v>1637637</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3894514995602419</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3741277503133212</v>
+        <v>0.373840285445607</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4051156695580104</v>
+        <v>0.4045009786112713</v>
       </c>
     </row>
     <row r="10">
@@ -3955,19 +3955,19 @@
         <v>467045</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>431451</v>
+        <v>430566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>503520</v>
+        <v>505103</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2258864004830266</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.208671731485054</v>
+        <v>0.2082434143487788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2435279153814974</v>
+        <v>0.2442932718225109</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>416</v>
@@ -3976,19 +3976,19 @@
         <v>435443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>398133</v>
+        <v>399784</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>474083</v>
+        <v>474240</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2198173506332115</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2009830085563434</v>
+        <v>0.2018162367064257</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.23932363300028</v>
+        <v>0.2394030475263184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>854</v>
@@ -3997,19 +3997,19 @@
         <v>902487</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>850520</v>
+        <v>852414</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>956043</v>
+        <v>964273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2229168449083657</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2100809734481036</v>
+        <v>0.2105486467825295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2361454477361246</v>
+        <v>0.2381783093266971</v>
       </c>
     </row>
     <row r="11">
@@ -4101,19 +4101,19 @@
         <v>179089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>156469</v>
+        <v>152420</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>203424</v>
+        <v>201642</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3286851252031852</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2871705725120531</v>
+        <v>0.2797399687049718</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3733486522490524</v>
+        <v>0.3700771176105647</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>188</v>
@@ -4122,19 +4122,19 @@
         <v>195765</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>174567</v>
+        <v>174232</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>220093</v>
+        <v>219542</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3571687277797887</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3184922381383337</v>
+        <v>0.317882113862789</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4015539981029554</v>
+        <v>0.4005493121745226</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>356</v>
@@ -4143,19 +4143,19 @@
         <v>374854</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>343751</v>
+        <v>343827</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>407913</v>
+        <v>408191</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3429691264921357</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3145122240340437</v>
+        <v>0.3145809329448423</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3732165589796856</v>
+        <v>0.3734701556742651</v>
       </c>
     </row>
     <row r="13">
@@ -4172,19 +4172,19 @@
         <v>222397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>197538</v>
+        <v>197335</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>247224</v>
+        <v>250393</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4081702582800519</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3625459473702324</v>
+        <v>0.3621734675237872</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4537348125140294</v>
+        <v>0.4595504976017166</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>209</v>
@@ -4193,19 +4193,19 @@
         <v>218695</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>196185</v>
+        <v>195043</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>239989</v>
+        <v>241639</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3990030413868494</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3579352524547793</v>
+        <v>0.3558507659461749</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4378539049617528</v>
+        <v>0.4408639417010518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>408</v>
@@ -4214,19 +4214,19 @@
         <v>441092</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>410555</v>
+        <v>404339</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>476246</v>
+        <v>472946</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4035730681048824</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3756332319458647</v>
+        <v>0.3699461376513788</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4357366219676773</v>
+        <v>0.4327172713710938</v>
       </c>
     </row>
     <row r="14">
@@ -4243,19 +4243,19 @@
         <v>143378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123273</v>
+        <v>121043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>169761</v>
+        <v>164272</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2631446165167629</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2262462440709027</v>
+        <v>0.2221523353796323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3115653949748185</v>
+        <v>0.3014913707821461</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -4264,19 +4264,19 @@
         <v>133643</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>115523</v>
+        <v>115713</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>155342</v>
+        <v>157089</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2438282308333619</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2107686168588037</v>
+        <v>0.2111158355857943</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2834169900803936</v>
+        <v>0.2866049201723538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>260</v>
@@ -4285,19 +4285,19 @@
         <v>277021</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>248313</v>
+        <v>249091</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>305888</v>
+        <v>306218</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2534578054029818</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2271912946331938</v>
+        <v>0.22790369844231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2798697527011805</v>
+        <v>0.2801714815741113</v>
       </c>
     </row>
     <row r="15">
@@ -4389,19 +4389,19 @@
         <v>1258484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1204943</v>
+        <v>1200080</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1318131</v>
+        <v>1319099</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3739843423647589</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3580733830990747</v>
+        <v>0.3566282874431559</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3917094598797358</v>
+        <v>0.3919971886493566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1317</v>
@@ -4410,19 +4410,19 @@
         <v>1401945</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1340991</v>
+        <v>1339711</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1462920</v>
+        <v>1457748</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3985998179174157</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3812693138958991</v>
+        <v>0.3809055030545832</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.415935957287881</v>
+        <v>0.4144657198522645</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2521</v>
@@ -4431,19 +4431,19 @@
         <v>2660430</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2577055</v>
+        <v>2573430</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2742148</v>
+        <v>2742350</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3865640916355866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3744496415658535</v>
+        <v>0.3739229556427945</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3984378810955978</v>
+        <v>0.3984672715907361</v>
       </c>
     </row>
     <row r="17">
@@ -4460,19 +4460,19 @@
         <v>1328440</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1267743</v>
+        <v>1276467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1384400</v>
+        <v>1387578</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3947731600534159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3767359042275722</v>
+        <v>0.3793281672682109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4114026937963797</v>
+        <v>0.4123471185863199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1276</v>
@@ -4481,19 +4481,19 @@
         <v>1350272</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1289045</v>
+        <v>1295209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1410821</v>
+        <v>1410984</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3839079711901059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3665000241110371</v>
+        <v>0.3682525627016168</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4011234594560248</v>
+        <v>0.401169628896707</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2537</v>
@@ -4502,19 +4502,19 @@
         <v>2678712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2593223</v>
+        <v>2598174</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2758241</v>
+        <v>2764550</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3892205006547281</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3767988177777757</v>
+        <v>0.377518224565604</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4007762593107599</v>
+        <v>0.4016928891911886</v>
       </c>
     </row>
     <row r="18">
@@ -4531,19 +4531,19 @@
         <v>778148</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>729643</v>
+        <v>730253</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>828057</v>
+        <v>826995</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2312424975818252</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2168282880072252</v>
+        <v>0.2170095438644719</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2460739911773397</v>
+        <v>0.2457585583242849</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>719</v>
@@ -4552,19 +4552,19 @@
         <v>764958</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>718185</v>
+        <v>720000</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>814050</v>
+        <v>819273</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2174922108924784</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2041937987203895</v>
+        <v>0.2047097303973945</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2314498284549441</v>
+        <v>0.2329349691200185</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1457</v>
@@ -4573,19 +4573,19 @@
         <v>1543106</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1474867</v>
+        <v>1472015</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1615255</v>
+        <v>1613290</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2242154077096853</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2143002300881092</v>
+        <v>0.2138857834563529</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2346987803567579</v>
+        <v>0.2344132156640999</v>
       </c>
     </row>
     <row r="19">
